--- a/TestData/LV_TMTI0056883_VerifyNewJobTypeIsForFVAOnly.xlsx
+++ b/TestData/LV_TMTI0056883_VerifyNewJobTypeIsForFVAOnly.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vkumar0427\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16BCFB14-9042-4F39-A72B-AC6DACD3F42D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6158CB76-741C-44C7-94CF-7FC7F97926D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="-23148" yWindow="708" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="2" r:id="rId1"/>
@@ -73,7 +73,7 @@
     <t>Dimitri Drone</t>
   </si>
   <si>
-    <t>Liz Hedgcock</t>
+    <t>Blaise Brunda</t>
   </si>
 </sst>
 </file>
@@ -807,7 +807,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
